--- a/ResProject/SkillProject/技能表.xlsx
+++ b/ResProject/SkillProject/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>技能类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,79 +241,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对敌方单体造成3000点伤害.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，可以恢复200点生命.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体每秒恢复2%生命值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体移速减少30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体敌人造成300点伤害，冷却时间5秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体受到的伤害减少15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量低于30%时，免疫所有伤害，持续5秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击可以使敌人受到的伤害增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除我方所有英雄的所有不利魔法效果.CD10秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于70%时触发，每秒持续恢复800血，持续6秒.冷却时间15秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于20%时，伤害提高100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击造成燃烧效果，每秒造成200点伤害.持续3秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将40%伤害转化为生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体每秒减少5%最大生命值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机对一个敌人造成每秒15%最大生命值，持续10秒.CD10秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体成员拥有15%吸血光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击减少敌方敌人150点防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体成员脚下有个光环特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之后，在英雄身边触发特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>40%概率对前面扇形内的所有敌人造成800点伤害.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对敌方单体造成3000点伤害.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击时，可以恢复200点生命.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体每秒恢复2%生命值.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体移速减少30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方全体敌人造成300点伤害，冷却时间5秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体受到的伤害减少15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量低于30%时，免疫所有伤害，持续5秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击可以使敌人受到的伤害增加25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除我方所有英雄的所有不利魔法效果.CD10秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于70%时触发，每秒持续恢复800血，持续6秒.冷却时间15秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于20%时，伤害提高100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击造成燃烧效果，每秒造成200点伤害.持续3秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将40%伤害转化为生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体每秒减少5%最大生命值.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机对一个敌人造成每秒15%最大生命值，持续10秒.CD10秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体成员拥有15%吸血光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击减少敌方敌人150点防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环</t>
+    <t>受到伤害概率触发时，在关羽身上触发特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就那张图发行一条直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，在对方的屏幕中间触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，以曹操为中心触发圆圈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，选择范围，然后再次点击出现特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，选择单体目标，特效在选中的单位出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS自动释放.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,23 +736,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="69.5" customWidth="1"/>
-    <col min="6" max="6" width="60.125" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="6" max="6" width="69.5" customWidth="1"/>
+    <col min="7" max="7" width="60.125" customWidth="1"/>
+    <col min="8" max="8" width="32.375" customWidth="1"/>
+    <col min="9" max="9" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,16 +767,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -735,16 +787,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -758,10 +813,13 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -775,13 +833,16 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -795,13 +856,16 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -815,13 +879,16 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -835,13 +902,16 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -855,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -875,13 +948,16 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -895,13 +971,16 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -915,13 +994,16 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -935,13 +1017,16 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -955,13 +1040,16 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -975,16 +1063,19 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -998,16 +1089,19 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1021,16 +1115,19 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
       <c r="G16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1043,14 +1140,14 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1064,10 +1161,13 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
-        <v>71</v>
+      <c r="G18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
